--- a/tests/robot_framework/files/testdossiers/woo1/inventory.xlsx
+++ b/tests/robot_framework/files/testdossiers/woo1/inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/Storage/Repos/minvws/nl-rdo-woo-web-private/tests/robot_framework/files/testdossiers/woo1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A776DD-A38D-2949-8372-661762C77549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A20B3C1-FEC1-8C44-B334-B50B1BAE3148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14080" yWindow="-21100" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -118,13 +118,16 @@
   </si>
   <si>
     <t>memo overeenkomst VWS Groothandels KNMP.docx</t>
+  </si>
+  <si>
+    <t>55</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -135,6 +138,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,15 +166,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -184,9 +197,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -201,13 +211,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{936A49BE-9B4D-F448-98DD-A0CB315EE7D5}" name="Table1" displayName="Table1" ref="A1:O6" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{936A49BE-9B4D-F448-98DD-A0CB315EE7D5}" name="Table1" displayName="Table1" ref="A1:O6" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:O6" xr:uid="{936A49BE-9B4D-F448-98DD-A0CB315EE7D5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O6">
     <sortCondition ref="A1:A6"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{158A96F9-3151-B94D-8B1A-D50964E764FC}" name="ID" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{158A96F9-3151-B94D-8B1A-D50964E764FC}" name="ID" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{1B320458-DF1D-3D45-9BDA-4D69D9849623}" name="Matter"/>
     <tableColumn id="3" xr3:uid="{36BD36F0-3A5E-BD49-AF1E-66424D83BBF8}" name="Family"/>
     <tableColumn id="4" xr3:uid="{48561162-185F-D34D-94C4-5311F016A3AD}" name="Email Thread ID"/>
@@ -409,7 +419,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -480,8 +490,8 @@
       <c r="A2" s="2">
         <v>171059</v>
       </c>
-      <c r="B2">
-        <v>5</v>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C2">
         <v>171059</v>
@@ -512,8 +522,8 @@
       <c r="A3" s="2">
         <v>171080</v>
       </c>
-      <c r="B3">
-        <v>5</v>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C3">
         <v>171080</v>
@@ -544,8 +554,8 @@
       <c r="A4" s="2">
         <v>171115</v>
       </c>
-      <c r="B4">
-        <v>5</v>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C4">
         <v>171115</v>
@@ -576,8 +586,8 @@
       <c r="A5" s="2">
         <v>171137</v>
       </c>
-      <c r="B5">
-        <v>5</v>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C5">
         <v>171137</v>
@@ -608,8 +618,8 @@
       <c r="A6" s="2">
         <v>171141</v>
       </c>
-      <c r="B6">
-        <v>5</v>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C6">
         <v>171141</v>
